--- a/pred_ohlcv/54_21/2020-01-20 AMO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 AMO ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-36597665.5939</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-36597665.5939</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-37932414.2679</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-37233347.77290001</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-37658456.47860001</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-38982202.04040001</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-40240668.85340001</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-37343933.97030001</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-37343933.97030001</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-36017661.05830001</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-37428691.59330001</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-38246418.76230001</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-39081097.45630001</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-37881960.9803</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-38623406.28730001</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-37551406.24730001</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-36030190.8013</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-34644657.5333</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-35826842.4843</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-34983688.0283</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-33615106.2853</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-34373503.1173</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-35292939.43430001</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-28940132.6026</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-30475395.16220001</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-32005086.37120001</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-30695764.98420001</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-29216928.35020001</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-30212646.52920001</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-29420346.64720001</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-28248976.70381661</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-27596449.25261661</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-26741404.79541661</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-24438017.49301661</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-24438017.49301661</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-23366017.45301661</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-23366017.45301661</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-23366017.45301661</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-24966130.00251661</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-24122975.54651661</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-24991557.28951661</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-24233160.45751661</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-25152596.77451661</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-23851751.15051661</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-24932226.95351661</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-23402535.74451661</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-20533912.76971661</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-22012749.40371661</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-21017031.22471661</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-20224731.34271661</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-19254440.45071661</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-18402810.23271661</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-17542704.25171661</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-20127443.97571661</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-21284201.63971661</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-19830792.29271661</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-18852025.63871662</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-18119056.09371661</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-16928395.37971661</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-17839355.93471661</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-18525892.68771661</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-19741980.68871661</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-9537139.434616618</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-8584563.381216619</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-9326008.688216619</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-11643413.87521662</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-9965580.72621662</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-11266426.35021662</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-12344903.37341662</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-12447706.32921662</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-15766392.67641662</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-15586448.20571662</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-16438078.42371662</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-16436113.93051662</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-18115401.99891662</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-19534908.29691662</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-145924378.9283577</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-144697700.9435577</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-223109711.6018213</v>
       </c>
       <c r="H712">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-223109711.6018213</v>
       </c>
       <c r="H714">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-232813123.5079213</v>
       </c>
       <c r="H715">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-230530066.2368213</v>
       </c>
       <c r="H716">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-228189491.8242213</v>
       </c>
       <c r="H717">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-227193773.6452213</v>
       </c>
       <c r="H718">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-228744337.0925213</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-20 AMO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 AMO ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-36597665.5939</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-36597665.5939</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-37932414.2679</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-37233347.77290001</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-37658456.47860001</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-38982202.04040001</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-38246418.76230001</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-9558534.958616616</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-8575324.305616617</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-9537139.434616618</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-9326008.688216619</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-10774832.13221662</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-11643413.87521662</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-10885017.04321662</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-9965580.72621662</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-11266426.35021662</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-11264427.57041662</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-12344903.37341662</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-12447706.32921662</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-13977397.53821662</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-15766392.67641662</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-15586448.20571662</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-16438078.42371662</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-16436113.93051662</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-18115401.99891662</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-44236185.04095771</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-145924378.9283577</v>
       </c>
       <c r="H672">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-144697700.9435577</v>
       </c>
       <c r="H673">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-223109711.6018213</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-223109711.6018213</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-232813123.5079213</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-230530066.2368213</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-228189491.8242213</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-227193773.6452213</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-229807994.6372213</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-228947888.6562213</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-227326889.1331213</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-229271136.3022213</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734" spans="1:8">
